--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,31 +43,31 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>useless</t>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>negative</t>
@@ -76,343 +76,334 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>cookies</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>baking</t>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>big</t>
   </si>
   <si>
     <t>making</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>ice</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
+    <t>dish</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>pot</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>like</t>
   </si>
   <si>
     <t>purchased</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>lot</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>right</t>
   </si>
   <si>
     <t>got</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>used</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>size</t>
   </si>
   <si>
     <t>would</t>
@@ -776,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -845,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9655172413793104</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -863,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -887,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -895,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -913,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.8985507246376812</v>
+        <v>0.8828125</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -937,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -945,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.55</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -963,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -987,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -995,13 +986,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4108527131782946</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1013,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8405572755417957</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>543</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>543</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1037,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1045,13 +1036,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3434343434343434</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1063,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.7792207792207793</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1087,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1095,13 +1086,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3333333333333333</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1113,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.7359307359307359</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1137,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1145,13 +1136,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3207547169811321</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1163,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.726027397260274</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1187,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1195,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2352941176470588</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1213,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.7241379310344828</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1237,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1245,13 +1236,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1945945945945946</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1263,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.711864406779661</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L11">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="M11">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1287,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1295,13 +1286,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1777777777777778</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1313,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.6914285714285714</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L12">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1337,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1345,13 +1336,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1363,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1371,13 +1362,13 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.658908507223114</v>
+        <v>0.6685714285714286</v>
       </c>
       <c r="L14">
-        <v>821</v>
+        <v>117</v>
       </c>
       <c r="M14">
-        <v>821</v>
+        <v>117</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1389,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>425</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1397,13 +1388,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.6428571428571429</v>
+        <v>0.658908507223114</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>821</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>821</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1423,13 +1414,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.625</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1441,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1449,13 +1440,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="L17">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1467,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1475,13 +1466,13 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6086956521739131</v>
+        <v>0.5808383233532934</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1501,13 +1492,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6068376068376068</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L19">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1527,13 +1518,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.5909090909090909</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1545,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1553,13 +1544,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.5833333333333334</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1579,13 +1570,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.5808383233532934</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L22">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="M22">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1597,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1631,13 +1622,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5555555555555556</v>
+        <v>0.5488721804511278</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1649,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1657,7 +1648,7 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5492957746478874</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L25">
         <v>39</v>
@@ -1675,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1683,13 +1674,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5413533834586466</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L26">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1701,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1709,13 +1700,13 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5230769230769231</v>
+        <v>0.515625</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1735,13 +1726,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4819277108433735</v>
+        <v>0.4375</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1753,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1761,13 +1752,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4603174603174603</v>
+        <v>0.4362745098039216</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1779,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1787,13 +1778,13 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4578313253012048</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L30">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M30">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1805,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1813,13 +1804,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4264705882352941</v>
+        <v>0.424124513618677</v>
       </c>
       <c r="L31">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="M31">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1831,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>234</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1839,13 +1830,13 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.42</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1857,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1891,13 +1882,13 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4098360655737705</v>
+        <v>0.41</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1909,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1917,13 +1908,13 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4081632653061225</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1935,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1943,13 +1934,13 @@
         <v>52</v>
       </c>
       <c r="K36">
-        <v>0.3947368421052632</v>
+        <v>0.4060150375939849</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1961,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1969,13 +1960,13 @@
         <v>53</v>
       </c>
       <c r="K37">
-        <v>0.3928571428571428</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1987,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1995,13 +1986,13 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>0.3902439024390244</v>
+        <v>0.389041095890411</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2013,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2021,13 +2012,13 @@
         <v>55</v>
       </c>
       <c r="K39">
-        <v>0.3852140077821012</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L39">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2039,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>158</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2047,13 +2038,13 @@
         <v>56</v>
       </c>
       <c r="K40">
-        <v>0.3779904306220095</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L40">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2065,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>130</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2073,13 +2064,13 @@
         <v>57</v>
       </c>
       <c r="K41">
-        <v>0.3703703703703703</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L41">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2088,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>459</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2099,13 +2090,13 @@
         <v>58</v>
       </c>
       <c r="K42">
-        <v>0.3552631578947368</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2117,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2125,13 +2116,13 @@
         <v>59</v>
       </c>
       <c r="K43">
-        <v>0.3478260869565217</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2143,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2151,13 +2142,13 @@
         <v>60</v>
       </c>
       <c r="K44">
-        <v>0.3387096774193548</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2169,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2177,13 +2168,13 @@
         <v>61</v>
       </c>
       <c r="K45">
-        <v>0.3377483443708609</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="L45">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2195,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2203,13 +2194,13 @@
         <v>62</v>
       </c>
       <c r="K46">
-        <v>0.3283100107642626</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L46">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2221,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>624</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2229,13 +2220,13 @@
         <v>63</v>
       </c>
       <c r="K47">
-        <v>0.3265306122448979</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2247,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2255,13 +2246,13 @@
         <v>64</v>
       </c>
       <c r="K48">
-        <v>0.3233082706766917</v>
+        <v>0.3304628632938644</v>
       </c>
       <c r="L48">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="M48">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2273,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>90</v>
+        <v>622</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2281,13 +2272,13 @@
         <v>65</v>
       </c>
       <c r="K49">
-        <v>0.3230769230769231</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2299,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2307,13 +2298,13 @@
         <v>66</v>
       </c>
       <c r="K50">
-        <v>0.3209876543209876</v>
+        <v>0.3205741626794258</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2325,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2333,13 +2324,13 @@
         <v>67</v>
       </c>
       <c r="K51">
-        <v>0.3137254901960784</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2351,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2359,13 +2350,13 @@
         <v>68</v>
       </c>
       <c r="K52">
-        <v>0.3093525179856115</v>
+        <v>0.3112582781456953</v>
       </c>
       <c r="L52">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M52">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2377,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2385,13 +2376,13 @@
         <v>69</v>
       </c>
       <c r="K53">
-        <v>0.3090909090909091</v>
+        <v>0.2915360501567398</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2403,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>38</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2411,13 +2402,13 @@
         <v>70</v>
       </c>
       <c r="K54">
-        <v>0.3006622516556292</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L54">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="M54">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2429,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>528</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2437,13 +2428,13 @@
         <v>71</v>
       </c>
       <c r="K55">
-        <v>0.2972972972972973</v>
+        <v>0.2754966887417218</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2455,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>78</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2463,13 +2454,13 @@
         <v>72</v>
       </c>
       <c r="K56">
-        <v>0.2941176470588235</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L56">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2481,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2489,13 +2480,13 @@
         <v>73</v>
       </c>
       <c r="K57">
-        <v>0.2871287128712871</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L57">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2507,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2515,25 +2506,25 @@
         <v>74</v>
       </c>
       <c r="K58">
-        <v>0.2777777777777778</v>
+        <v>0.258974358974359</v>
       </c>
       <c r="L58">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="M58">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>78</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2541,13 +2532,13 @@
         <v>75</v>
       </c>
       <c r="K59">
-        <v>0.2727272727272727</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L59">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2559,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>232</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2567,13 +2558,13 @@
         <v>76</v>
       </c>
       <c r="K60">
-        <v>0.2698412698412698</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2585,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2593,13 +2584,13 @@
         <v>77</v>
       </c>
       <c r="K61">
-        <v>0.2672634271099744</v>
+        <v>0.25</v>
       </c>
       <c r="L61">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2611,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>573</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2619,13 +2610,13 @@
         <v>78</v>
       </c>
       <c r="K62">
-        <v>0.2666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2637,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2645,13 +2636,13 @@
         <v>79</v>
       </c>
       <c r="K63">
-        <v>0.25</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2663,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2671,13 +2662,13 @@
         <v>80</v>
       </c>
       <c r="K64">
-        <v>0.2483221476510067</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L64">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2689,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2697,13 +2688,13 @@
         <v>81</v>
       </c>
       <c r="K65">
-        <v>0.2380952380952381</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="L65">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M65">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2715,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2723,13 +2714,13 @@
         <v>82</v>
       </c>
       <c r="K66">
-        <v>0.2342342342342342</v>
+        <v>0.2092457420924574</v>
       </c>
       <c r="L66">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M66">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2741,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>85</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2749,25 +2740,25 @@
         <v>83</v>
       </c>
       <c r="K67">
-        <v>0.22</v>
+        <v>0.2092391304347826</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="M67">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>78</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2775,13 +2766,13 @@
         <v>84</v>
       </c>
       <c r="K68">
-        <v>0.2173913043478261</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L68">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2793,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2801,25 +2792,25 @@
         <v>85</v>
       </c>
       <c r="K69">
-        <v>0.2073170731707317</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="L69">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M69">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2827,25 +2818,25 @@
         <v>86</v>
       </c>
       <c r="K70">
-        <v>0.2038043478260869</v>
+        <v>0.1993127147766323</v>
       </c>
       <c r="L70">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="M70">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="N70">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>293</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2853,25 +2844,25 @@
         <v>87</v>
       </c>
       <c r="K71">
-        <v>0.2023809523809524</v>
+        <v>0.1958997722095672</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>67</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2879,13 +2870,13 @@
         <v>88</v>
       </c>
       <c r="K72">
-        <v>0.2</v>
+        <v>0.1901840490797546</v>
       </c>
       <c r="L72">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M72">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2897,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>68</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2905,25 +2896,25 @@
         <v>89</v>
       </c>
       <c r="K73">
-        <v>0.1995614035087719</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="L73">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="M73">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>365</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2931,25 +2922,25 @@
         <v>90</v>
       </c>
       <c r="K74">
-        <v>0.1981981981981982</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L74">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M74">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N74">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O74">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2957,13 +2948,13 @@
         <v>91</v>
       </c>
       <c r="K75">
-        <v>0.1885245901639344</v>
+        <v>0.18</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2975,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2983,25 +2974,25 @@
         <v>92</v>
       </c>
       <c r="K76">
-        <v>0.1862068965517241</v>
+        <v>0.1789976133651551</v>
       </c>
       <c r="L76">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="M76">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>236</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3009,13 +3000,13 @@
         <v>93</v>
       </c>
       <c r="K77">
-        <v>0.1858974358974359</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L77">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3027,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3035,25 +3026,25 @@
         <v>94</v>
       </c>
       <c r="K78">
-        <v>0.1845102505694761</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L78">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="N78">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>358</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3061,13 +3052,13 @@
         <v>95</v>
       </c>
       <c r="K79">
-        <v>0.1768292682926829</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="L79">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3079,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3087,25 +3078,25 @@
         <v>96</v>
       </c>
       <c r="K80">
-        <v>0.1729957805907173</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="L80">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M80">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N80">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3113,13 +3104,13 @@
         <v>97</v>
       </c>
       <c r="K81">
-        <v>0.1660516605166052</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L81">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M81">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3131,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>226</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3139,25 +3130,25 @@
         <v>98</v>
       </c>
       <c r="K82">
-        <v>0.162962962962963</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="L82">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M82">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>226</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3165,13 +3156,13 @@
         <v>99</v>
       </c>
       <c r="K83">
-        <v>0.1603053435114504</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="L83">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M83">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3183,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3191,13 +3182,13 @@
         <v>100</v>
       </c>
       <c r="K84">
-        <v>0.1595092024539877</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="L84">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M84">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3209,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3217,13 +3208,13 @@
         <v>101</v>
       </c>
       <c r="K85">
-        <v>0.1587301587301587</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L85">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M85">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3235,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3243,13 +3234,13 @@
         <v>102</v>
       </c>
       <c r="K86">
-        <v>0.1559633027522936</v>
+        <v>0.1448087431693989</v>
       </c>
       <c r="L86">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M86">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3261,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>92</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3269,13 +3260,13 @@
         <v>103</v>
       </c>
       <c r="K87">
-        <v>0.1525423728813559</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="L87">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M87">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3287,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>150</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3295,7 +3286,7 @@
         <v>104</v>
       </c>
       <c r="K88">
-        <v>0.1515151515151515</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L88">
         <v>15</v>
@@ -3313,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3321,25 +3312,25 @@
         <v>105</v>
       </c>
       <c r="K89">
-        <v>0.1486810551558753</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L89">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M89">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="N89">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>355</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3347,25 +3338,25 @@
         <v>106</v>
       </c>
       <c r="K90">
-        <v>0.1468531468531468</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="L90">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M90">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N90">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>122</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3373,13 +3364,13 @@
         <v>107</v>
       </c>
       <c r="K91">
-        <v>0.1461538461538462</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="L91">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M91">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3391,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3399,13 +3390,13 @@
         <v>108</v>
       </c>
       <c r="K92">
-        <v>0.1428571428571428</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L92">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M92">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3417,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3425,25 +3416,25 @@
         <v>109</v>
       </c>
       <c r="K93">
-        <v>0.125</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L93">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N93">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3451,25 +3442,25 @@
         <v>110</v>
       </c>
       <c r="K94">
-        <v>0.124031007751938</v>
+        <v>0.1235632183908046</v>
       </c>
       <c r="L94">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M94">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>113</v>
+        <v>610</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3477,25 +3468,25 @@
         <v>111</v>
       </c>
       <c r="K95">
-        <v>0.1151515151515152</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M95">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3503,25 +3494,25 @@
         <v>112</v>
       </c>
       <c r="K96">
-        <v>0.110632183908046</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L96">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="M96">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="N96">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>619</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3529,25 +3520,25 @@
         <v>113</v>
       </c>
       <c r="K97">
-        <v>0.1074766355140187</v>
+        <v>0.1116322701688555</v>
       </c>
       <c r="L97">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M97">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="N97">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O97">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3555,25 +3546,25 @@
         <v>114</v>
       </c>
       <c r="K98">
-        <v>0.1052631578947368</v>
+        <v>0.1040462427745665</v>
       </c>
       <c r="L98">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M98">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N98">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O98">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3581,25 +3572,25 @@
         <v>115</v>
       </c>
       <c r="K99">
-        <v>0.103960396039604</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L99">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M99">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N99">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3607,13 +3598,13 @@
         <v>116</v>
       </c>
       <c r="K100">
-        <v>0.1032608695652174</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="L100">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M100">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N100">
         <v>0.95</v>
@@ -3625,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3633,13 +3624,13 @@
         <v>117</v>
       </c>
       <c r="K101">
-        <v>0.1010928961748634</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="L101">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M101">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3651,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>329</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3659,25 +3650,25 @@
         <v>118</v>
       </c>
       <c r="K102">
-        <v>0.09615384615384616</v>
+        <v>0.0996309963099631</v>
       </c>
       <c r="L102">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M102">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>188</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3685,25 +3676,25 @@
         <v>119</v>
       </c>
       <c r="K103">
-        <v>0.09392265193370165</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="L103">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M103">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N103">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>328</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3711,25 +3702,25 @@
         <v>120</v>
       </c>
       <c r="K104">
-        <v>0.0931174089068826</v>
+        <v>0.08948740225890529</v>
       </c>
       <c r="L104">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="M104">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="N104">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O104">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>224</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3737,22 +3728,22 @@
         <v>121</v>
       </c>
       <c r="K105">
-        <v>0.08883248730964467</v>
+        <v>0.07948717948717948</v>
       </c>
       <c r="L105">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M105">
         <v>35</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
         <v>359</v>
@@ -3763,25 +3754,25 @@
         <v>122</v>
       </c>
       <c r="K106">
-        <v>0.08823529411764706</v>
+        <v>0.07751937984496124</v>
       </c>
       <c r="L106">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M106">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>248</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3789,13 +3780,13 @@
         <v>123</v>
       </c>
       <c r="K107">
-        <v>0.08282476024411509</v>
+        <v>0.07458563535911603</v>
       </c>
       <c r="L107">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M107">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N107">
         <v>0.9</v>
@@ -3807,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>1052</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3815,13 +3806,13 @@
         <v>124</v>
       </c>
       <c r="K108">
-        <v>0.08080808080808081</v>
+        <v>0.06642066420664207</v>
       </c>
       <c r="L108">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M108">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3833,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>182</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3841,25 +3832,25 @@
         <v>125</v>
       </c>
       <c r="K109">
-        <v>0.07037037037037037</v>
+        <v>0.06082725060827251</v>
       </c>
       <c r="L109">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M109">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N109">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="O109">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>502</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3867,25 +3858,25 @@
         <v>126</v>
       </c>
       <c r="K110">
-        <v>0.06936416184971098</v>
+        <v>0.05571030640668524</v>
       </c>
       <c r="L110">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M110">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N110">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="O110">
-        <v>0.07999999999999996</v>
+        <v>0.38</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>483</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3893,25 +3884,25 @@
         <v>127</v>
       </c>
       <c r="K111">
-        <v>0.06164383561643835</v>
+        <v>0.05498281786941581</v>
       </c>
       <c r="L111">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M111">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N111">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="O111">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3919,25 +3910,25 @@
         <v>128</v>
       </c>
       <c r="K112">
-        <v>0.05847953216374269</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="L112">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M112">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N112">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="O112">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>322</v>
+        <v>714</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3945,25 +3936,25 @@
         <v>129</v>
       </c>
       <c r="K113">
-        <v>0.05339805825242718</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="L113">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M113">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N113">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="O113">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>390</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -3971,103 +3962,25 @@
         <v>130</v>
       </c>
       <c r="K114">
-        <v>0.04645476772616137</v>
+        <v>0.03001364256480218</v>
       </c>
       <c r="L114">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M114">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N114">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O114">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="115" spans="10:17">
-      <c r="J115" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K115">
-        <v>0.04617414248021108</v>
-      </c>
-      <c r="L115">
-        <v>35</v>
-      </c>
-      <c r="M115">
-        <v>44</v>
-      </c>
-      <c r="N115">
-        <v>0.8</v>
-      </c>
-      <c r="O115">
-        <v>0.2</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="116" spans="10:17">
-      <c r="J116" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K116">
-        <v>0.04558404558404559</v>
-      </c>
-      <c r="L116">
-        <v>16</v>
-      </c>
-      <c r="M116">
-        <v>23</v>
-      </c>
-      <c r="N116">
-        <v>0.7</v>
-      </c>
-      <c r="O116">
-        <v>0.3</v>
-      </c>
-      <c r="P116" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q116">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="117" spans="10:17">
-      <c r="J117" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K117">
-        <v>0.02465753424657534</v>
-      </c>
-      <c r="L117">
-        <v>18</v>
-      </c>
-      <c r="M117">
-        <v>23</v>
-      </c>
-      <c r="N117">
-        <v>0.78</v>
-      </c>
-      <c r="O117">
-        <v>0.22</v>
-      </c>
-      <c r="P117" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q117">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
